--- a/rabbit_class.xlsx
+++ b/rabbit_class.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
